--- a/workSpace/浙江校讯通/（2011年1月）需求明细.xlsx
+++ b/workSpace/浙江校讯通/（2011年1月）需求明细.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="157">
   <si>
     <t>完成情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,18 +650,6 @@
   </si>
   <si>
     <t>需求提出时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sa后台，能查看到教育OA，发送给教师的短信；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师前台，在家长短信箱中点学生名字可以查看出家长订购的套餐，要求屏蔽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前是每天晚上进行全量更新；要改成晚上只自动更新增量；白天按手动更新则查看这台话机有没有进行过更新；如果更新过，则更新增量；如果没更新过，则更新全量；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -763,23 +751,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查询定制，在未定制服务下面，再加一个订购免费的、已退定下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤--考勤短信查询---按学生姓名、手机号码查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不必修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">目前只能单个转校，提供批量转校功能，并记录详细的日志
+这个需求，你把单选做成多选   就是能同事转多个。但不要提供导入 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前是每天晚上进行全量更新；要改成晚上只自动更新增量；白天按手动更新则查看这台话机有没有进行过更新；如果更新过，则更新增量；如果没更新过，则更新全量；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>上行短信群发、记录日志表【日志只记录一条】、明细表多条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询定制，在未定制服务下面，再加一个订购免费的、已退定下拉框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤--考勤短信查询---按学生姓名、手机号码查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教育oa--公共通讯录--群发短信加入oa_mobile_msg。插入groupsend表时，插入school_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不必修改</t>
+    <t>教师前台，在家长短信箱中点学生名字可以查看出家长订购的套餐，要求屏蔽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -800,20 +809,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在营销方案统计表中--每一页下面添加一个统计总量的一行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">目前只能单个转校，提供批量转校功能，并记录详细的日志
-这个需求，你把单选做成多选   就是能同事转多个。但不要提供导入 </t>
+    <t>Sa后台，能查看到教育OA，发送给教师的短信；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1616,11 +1620,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102365184"/>
-        <c:axId val="97855168"/>
+        <c:axId val="98401280"/>
+        <c:axId val="75482816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102365184"/>
+        <c:axId val="98401280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97855168"/>
+        <c:crossAx val="75482816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1637,7 +1641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97855168"/>
+        <c:axId val="75482816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,7 +1652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102365184"/>
+        <c:crossAx val="98401280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2600,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2669,7 +2673,7 @@
         <v>97</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2" s="27">
         <v>40573</v>
@@ -2678,7 +2682,7 @@
         <v>90</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2699,7 +2703,7 @@
         <v>97</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H3" s="27">
         <v>40574</v>
@@ -2708,7 +2712,7 @@
         <v>90</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2729,7 +2733,7 @@
         <v>97</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H4" s="27">
         <v>40694</v>
@@ -2757,7 +2761,7 @@
         <v>97</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H5" s="27">
         <v>40694</v>
@@ -2785,7 +2789,7 @@
         <v>97</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H6" s="27">
         <v>40694</v>
@@ -2813,13 +2817,13 @@
         <v>93</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H7" s="38">
         <v>40573</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J7" s="37" t="s">
         <v>88</v>
@@ -2843,7 +2847,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H8" s="9">
         <v>40548</v>
@@ -2875,7 +2879,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H9" s="9">
         <v>40548</v>
@@ -2907,7 +2911,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H10" s="9">
         <v>40183</v>
@@ -2939,7 +2943,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H11" s="9">
         <v>40208</v>
@@ -2969,7 +2973,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H12" s="50">
         <v>40188</v>
@@ -3001,7 +3005,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H13" s="18">
         <v>40548</v>
@@ -3033,7 +3037,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H14" s="22">
         <v>40188</v>
@@ -3065,7 +3069,7 @@
         <v>40</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H15" s="25">
         <v>40185</v>
@@ -3097,7 +3101,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H16" s="13">
         <v>40550</v>
@@ -3129,7 +3133,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H17" s="25">
         <v>40549</v>
@@ -3159,7 +3163,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H18" s="13">
         <v>40549</v>
@@ -3189,7 +3193,7 @@
         <v>63</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H19" s="13">
         <v>40550</v>
@@ -3219,7 +3223,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H20" s="13">
         <v>40550</v>
@@ -3249,7 +3253,7 @@
         <v>72</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H21" s="13">
         <v>40581</v>
@@ -3279,7 +3283,7 @@
         <v>82</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H22" s="42">
         <v>40555</v>
@@ -3309,7 +3313,7 @@
         <v>111</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H23" s="47">
         <v>40564</v>
@@ -3318,7 +3322,7 @@
         <v>112</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3339,7 +3343,7 @@
         <v>111</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H24" s="47">
         <v>40562</v>
@@ -3359,7 +3363,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="44" t="s">
@@ -3369,7 +3373,7 @@
         <v>116</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H25" s="47">
         <v>40564</v>
@@ -3378,7 +3382,10 @@
         <v>59</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3399,7 +3406,7 @@
         <v>120</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H26" s="47">
         <v>40573</v>
@@ -3408,7 +3415,7 @@
         <v>121</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3416,29 +3423,32 @@
         <v>26</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F27" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H27" s="47">
         <v>40589</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3446,29 +3456,32 @@
         <v>27</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F28" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H28" s="47">
         <v>40589</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3476,20 +3489,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F29" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H29" s="47">
         <v>40589</v>
@@ -3498,10 +3511,10 @@
         <v>90</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3509,20 +3522,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F30" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H30" s="47">
         <v>40589</v>
@@ -3531,7 +3544,7 @@
         <v>121</v>
       </c>
       <c r="J30" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="24" x14ac:dyDescent="0.15">
@@ -3539,29 +3552,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F31" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H31" s="47">
         <v>40589</v>
       </c>
       <c r="I31" s="46" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -3569,20 +3585,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>154</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F32" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H32" s="47">
         <v>40589</v>
@@ -3591,28 +3607,31 @@
         <v>121</v>
       </c>
       <c r="J32" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="K32" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="44">
         <v>32</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F33" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H33" s="47">
         <v>40589</v>
@@ -3621,28 +3640,28 @@
         <v>90</v>
       </c>
       <c r="J33" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="44">
         <v>33</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F34" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G34" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H34" s="47">
         <v>40589</v>
@@ -3651,10 +3670,13 @@
         <v>121</v>
       </c>
       <c r="J34" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A35" s="44">
         <v>34</v>
       </c>
@@ -3662,17 +3684,17 @@
         <v>117</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F35" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H35" s="47">
         <v>40589</v>
@@ -3681,28 +3703,31 @@
         <v>90</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="K35" s="46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="168" x14ac:dyDescent="0.15">
       <c r="A36" s="44">
         <v>35</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F36" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G36" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H36" s="47">
         <v>40589</v>
@@ -3711,31 +3736,34 @@
         <v>121</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="24" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="L36" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A37" s="44">
         <v>36</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F37" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H37" s="47">
         <v>40589</v>
@@ -3744,28 +3772,28 @@
         <v>90</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="44">
         <v>37</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F38" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H38" s="47">
         <v>40589</v>
@@ -3774,28 +3802,28 @@
         <v>121</v>
       </c>
       <c r="J38" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A39" s="35">
         <v>38</v>
       </c>
       <c r="B39" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>136</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>139</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H39" s="47">
         <v>40589</v>
@@ -3804,7 +3832,7 @@
         <v>121</v>
       </c>
       <c r="J39" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
